--- a/doc/Tests performance.xlsx
+++ b/doc/Tests performance.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09238fdc39009c17/Documents/Università/AIDE/Computational Intelligence and Deep Learning/Progetto/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09238fdc39009c17/Documents/Università/AIDE/Computational Intelligence and Deep Learning/Progetto/Deep-Learning-for-CBIS-DDSM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8748DCD6-D917-4480-96C4-00001F4E8981}"/>
+  <xr:revisionPtr revIDLastSave="878" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E230F0E-E73B-4FAB-8EA5-342953EC0813}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
+    <workbookView xWindow="3588" yWindow="3432" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" r:id="rId1"/>
     <sheet name="2.1_da" sheetId="2" r:id="rId2"/>
+    <sheet name="2.2" sheetId="3" r:id="rId3"/>
+    <sheet name="3.1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="76">
   <si>
     <t>Architecture: [32,32,64,64,128]</t>
   </si>
@@ -184,10 +186,85 @@
     <t>Patience: 50, lr: 0,001</t>
   </si>
   <si>
-    <t>4,5s</t>
-  </si>
-  <si>
-    <t>4,9s</t>
+    <t>4,1s</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>Architecture: [32,32,64,64,128,128]</t>
+  </si>
+  <si>
+    <t>Dropout: 0,2</t>
+  </si>
+  <si>
+    <t>da scegliere</t>
+  </si>
+  <si>
+    <t>scelto</t>
+  </si>
+  <si>
+    <t>Weights: balanced, [0,85 - 1,22]</t>
+  </si>
+  <si>
+    <t>Adam, batch_s:50, hidden_n=256</t>
+  </si>
+  <si>
+    <t>RMSprop, batch_s:50, hidden_n=512</t>
+  </si>
+  <si>
+    <t>Architecture: VGG16+dropout</t>
+  </si>
+  <si>
+    <t>batch_s:32, softmax</t>
+  </si>
+  <si>
+    <t>Hidden unites: 256</t>
+  </si>
+  <si>
+    <t>batch_s:64, softmax</t>
+  </si>
+  <si>
+    <t>batch_s:32, sigmoid</t>
+  </si>
+  <si>
+    <t>batch_s:64, sigmoid</t>
+  </si>
+  <si>
+    <t>Architecture: VGG16</t>
+  </si>
+  <si>
+    <t>Architecture: VGG19</t>
+  </si>
+  <si>
+    <t>Architecture: VGG19+dropout</t>
+  </si>
+  <si>
+    <t>21s</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>11,3s</t>
+  </si>
+  <si>
+    <t>13,3s</t>
+  </si>
+  <si>
+    <t>Weights: imbalanced, [1,13 - 0,97]</t>
+  </si>
+  <si>
+    <t>14s</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>Weights: imbalanced, [0,97 - 1,08]</t>
   </si>
 </sst>
 </file>
@@ -195,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -251,12 +328,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,14 +363,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -604,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E09C429-9401-4331-A575-FA12B9C692F4}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F0B05-CB8B-4787-92B9-2317B8DB6DB8}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,6 +1527,1815 @@
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="6"/>
     <col min="7" max="7" width="11.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.45610000000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.3301</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.8629</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="F10" s="15">
+        <v>100</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.878</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.2908</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.878</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.2979</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.378</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.7833</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F28">
+        <v>52</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.3533</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.3407</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.8407</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.8478</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F40">
+        <v>97</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05CA11-E954-43ED-8418-13A631C2E622}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.6028</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.5867</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <v>95</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>51</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="F11" s="5">
+        <v>91</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.65459999999999996</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>51</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.62390000000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.62980000000000003</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>100</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F19" s="6">
+        <v>86</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="F20" s="6">
+        <v>98</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="F21" s="6">
+        <v>100</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.59430000000000005</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <v>100</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.6179</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.6089</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>52</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.6169</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.1353</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0.5655</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.5917</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.6845</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.5998</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C40" s="8">
+        <v>5.6125999999999996</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="C44">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="D44">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.5595</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="C47">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="D47">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="F48" s="5">
+        <v>100</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA506A-0B11-4BCF-A1AE-7CC772A89491}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1454,469 +3362,324 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8">
-        <v>0.86899999999999999</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="C5" s="8">
-        <v>0.30059999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="D5" s="8">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.86250000000000004</v>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.84540000000000004</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.85709999999999997</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.31979999999999997</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.84519999999999995</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.85570000000000002</v>
-      </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8">
-        <v>0.80059999999999998</v>
+        <v>0.86009999999999998</v>
       </c>
       <c r="C7" s="8">
-        <v>0.45610000000000001</v>
+        <v>0.3553</v>
       </c>
       <c r="D7" s="8">
-        <v>0.79679999999999995</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.77590000000000003</v>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.83850000000000002</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8">
-        <v>0.46729999999999999</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="C8" s="8">
-        <v>0.70169999999999999</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="D8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.63690000000000002</v>
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.83499999999999996</v>
       </c>
       <c r="F8">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.84819999999999995</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.3301</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.84419999999999995</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.82830000000000004</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>0.86309999999999998</v>
       </c>
       <c r="C10" s="8">
-        <v>0.29199999999999998</v>
+        <v>0.3301</v>
       </c>
       <c r="D10" s="8">
-        <v>0.8629</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.85440000000000005</v>
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.84030000000000005</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8">
-        <v>0.878</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="C11" s="8">
-        <v>0.2908</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="D11" s="8">
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.86819999999999997</v>
+        <v>0.8669</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.85619999999999996</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B12" s="8">
-        <v>0.86899999999999999</v>
+        <v>0.84819999999999995</v>
       </c>
       <c r="C12" s="8">
-        <v>0.30349999999999999</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="D12" s="8">
-        <v>0.86609999999999998</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.85429999999999995</v>
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.82830000000000004</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.8367</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.85419999999999996</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.33979999999999999</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="8"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
+      <c r="E19" s="8"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="8"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
+      <c r="E21" s="8"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
+      <c r="E22" s="8"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Tests performance.xlsx
+++ b/doc/Tests performance.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09238fdc39009c17/Documents/Università/AIDE/Computational Intelligence and Deep Learning/Progetto/Deep-Learning-for-CBIS-DDSM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="878" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E230F0E-E73B-4FAB-8EA5-342953EC0813}"/>
+  <xr:revisionPtr revIDLastSave="998" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF668343-D2B6-4754-BCF7-8D3409C59B98}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3432" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" r:id="rId1"/>
     <sheet name="2.1_da" sheetId="2" r:id="rId2"/>
     <sheet name="2.2" sheetId="3" r:id="rId3"/>
     <sheet name="3.1" sheetId="4" r:id="rId4"/>
+    <sheet name="4.1" sheetId="6" r:id="rId5"/>
+    <sheet name="4.2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
   <si>
     <t>Architecture: [32,32,64,64,128]</t>
   </si>
@@ -265,6 +267,51 @@
   </si>
   <si>
     <t>Weights: imbalanced, [0,97 - 1,08]</t>
+  </si>
+  <si>
+    <t>11,2s</t>
+  </si>
+  <si>
+    <t>12,2s</t>
+  </si>
+  <si>
+    <t>19,4s</t>
+  </si>
+  <si>
+    <t>Weights: imbalanced, [0,9 - 0,93]</t>
+  </si>
+  <si>
+    <t>20,4s</t>
+  </si>
+  <si>
+    <t>batch_s:50, hidden_n=512</t>
+  </si>
+  <si>
+    <t>[32,32,64,64,128,128]</t>
+  </si>
+  <si>
+    <t>No weights</t>
+  </si>
+  <si>
+    <t>8,1s</t>
+  </si>
+  <si>
+    <t>Weights: (0,66 - 1,13 - 1,63)</t>
+  </si>
+  <si>
+    <t>21,2s</t>
+  </si>
+  <si>
+    <t>Bweights + batch norm.</t>
+  </si>
+  <si>
+    <t>16,1s</t>
+  </si>
+  <si>
+    <t>FINE TUNING</t>
+  </si>
+  <si>
+    <t>Architecture: RESNET50</t>
   </si>
 </sst>
 </file>
@@ -274,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +374,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -354,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,6 +439,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -707,14 +768,14 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="5"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -737,22 +798,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -775,7 +836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -798,7 +859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -821,7 +882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -844,7 +905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -867,7 +928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -890,7 +951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -913,7 +974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -936,12 +997,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -964,7 +1025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -987,7 +1048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1079,7 +1140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1125,17 +1186,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +1288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1273,7 +1334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1296,7 +1357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1319,12 +1380,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1347,7 +1408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1393,7 +1454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1416,7 +1477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1439,7 +1500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1462,7 +1523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1485,7 +1546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1519,10 +1580,10 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="6"/>
@@ -1530,7 +1591,7 @@
     <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1553,22 +1614,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1828,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1874,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +1943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +1989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1951,7 +2012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +2021,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +2030,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1992,7 +2053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2015,7 +2076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2038,7 +2099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2061,7 +2122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2084,7 +2145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2130,7 +2191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2153,7 +2214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2223,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +2246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2208,7 +2269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2231,7 +2292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2254,7 +2315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2277,7 +2338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2300,7 +2361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2323,7 +2384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2353,20 +2414,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05CA11-E954-43ED-8418-13A631C2E622}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2389,35 +2450,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="6"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2486,7 +2547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +2593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2558,7 +2619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2604,7 +2665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2676,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2638,7 +2699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -2661,7 +2722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -2684,7 +2745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -2707,7 +2768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -2730,7 +2791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -2753,7 +2814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2776,7 +2837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2799,7 +2860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -2810,7 +2871,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +2881,7 @@
       <c r="E24" s="9"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2843,7 +2904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2889,7 +2950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2912,7 +2973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2935,7 +2996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2958,7 +3019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2981,7 +3042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3004,7 +3065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3075,7 @@
       <c r="E33" s="9"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3037,7 +3098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3083,7 +3144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3106,7 +3167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3129,7 +3190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3152,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3175,7 +3236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3198,12 +3259,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -3226,7 +3287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>57</v>
       </c>
@@ -3249,14 +3310,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="8"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>58</v>
       </c>
@@ -3279,7 +3340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>57</v>
       </c>
@@ -3302,20 +3363,107 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0.625</v>
+      </c>
+      <c r="C50">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.496</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="B51">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="D51">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C53">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="D53">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C54">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="D54">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3326,19 +3474,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA506A-0B11-4BCF-A1AE-7CC772A89491}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -3361,26 +3509,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3403,30 +3551,30 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="23">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="23">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="23">
         <v>0.86729999999999996</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="23">
         <v>0.85709999999999997</v>
       </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="22">
+        <v>100</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -3472,7 +3620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
@@ -3482,7 +3630,7 @@
       <c r="E9" s="8"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3505,30 +3653,30 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="12">
         <v>0.32550000000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="12">
         <v>0.8669</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="12">
         <v>0.85619999999999996</v>
       </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3551,7 +3699,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3574,14 +3722,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -3591,47 +3739,79 @@
       <c r="E15" s="8"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="8">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.78420000000000001</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="12">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.84040000000000004</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="8">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.80840000000000001</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="8">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.3866</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.81850000000000001</v>
+      </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -3641,27 +3821,43 @@
       <c r="E20" s="8"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="8">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.3785</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.82269999999999999</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="12">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.8306</v>
+      </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3671,15 +3867,255 @@
       <c r="E23" s="8"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="8">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.82120000000000004</v>
+      </c>
       <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.69350000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC7697-358E-4536-9DD9-10DC7855A51F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14897E0B-8AB9-4862-A127-9A743E99CC47}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.7167</v>
+      </c>
+      <c r="E7">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="C8">
+        <v>1.1291</v>
+      </c>
+      <c r="E8">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Tests performance.xlsx
+++ b/doc/Tests performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09238fdc39009c17/Documents/Università/AIDE/Computational Intelligence and Deep Learning/Progetto/Deep-Learning-for-CBIS-DDSM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="998" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF668343-D2B6-4754-BCF7-8D3409C59B98}"/>
+  <xr:revisionPtr revIDLastSave="1096" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46671597-9265-4992-A575-5C66FF8657C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="97">
   <si>
     <t>Architecture: [32,32,64,64,128]</t>
   </si>
@@ -173,12 +173,6 @@
     <t>1,6 s</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>1,6s</t>
   </si>
   <si>
@@ -312,6 +306,30 @@
   </si>
   <si>
     <t>Architecture: RESNET50</t>
+  </si>
+  <si>
+    <t>batch_s:64, softmax, dropout</t>
+  </si>
+  <si>
+    <t>Architecture: VGG19, block5</t>
+  </si>
+  <si>
+    <t>Architecture: VGG16, block5</t>
+  </si>
+  <si>
+    <t>Architecture: VGG16, block4</t>
+  </si>
+  <si>
+    <t>Architecture: RESNET50, block5</t>
+  </si>
+  <si>
+    <t>overtraining</t>
+  </si>
+  <si>
+    <t>" (20 epoche)</t>
+  </si>
+  <si>
+    <t>" (15 epoche)</t>
   </si>
 </sst>
 </file>
@@ -406,11 +424,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -764,20 +781,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E09C429-9401-4331-A575-FA12B9C692F4}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -788,7 +805,7 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -817,17 +834,17 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0.82440000000000002</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>1.5748</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>45</v>
+      <c r="D5" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.8</v>
       </c>
       <c r="F5">
         <v>73</v>
@@ -840,733 +857,749 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>0.78569999999999995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>1.3268</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.78</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="11">
         <v>0.76</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0.5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
       <c r="F7">
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>0.83630000000000004</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>1.8651</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.83</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>0.82</v>
       </c>
       <c r="F8">
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>0.82140000000000002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>2.0432999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>0.82</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>0.8</v>
       </c>
       <c r="F9">
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>0.8155</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>1.1889000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>0.82</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>0.81</v>
       </c>
       <c r="F10">
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>0.81850000000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>2.4683999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>0.81</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="11">
         <v>0.8</v>
       </c>
       <c r="F11">
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>0.84230000000000005</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>1.7815000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>0.84</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="11">
         <v>0.82</v>
       </c>
       <c r="F12">
         <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>0.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
       <c r="F14">
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>0.83040000000000003</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>0.53</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>0.66</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="11">
         <v>0.46</v>
       </c>
       <c r="F15">
         <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0.5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="11">
         <v>0</v>
       </c>
       <c r="F16">
         <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>0.5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="11">
         <v>0</v>
       </c>
       <c r="F17">
         <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>0.5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="11">
         <v>0</v>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>0.5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
       <c r="F19">
         <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>0.5</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
       <c r="F20">
         <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>0.5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="11">
         <v>0</v>
       </c>
       <c r="F21">
         <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>0.8095</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>2.6406999999999998</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>0.8</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="11">
         <v>0.77</v>
       </c>
       <c r="F24">
         <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>0.83930000000000005</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>0.81469999999999998</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>0.84</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="11">
         <v>0.82</v>
       </c>
       <c r="F25">
         <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>0.8095</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>2.2437999999999998</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>0.81</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="11">
         <v>0.79</v>
       </c>
       <c r="F26">
         <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>0.80649999999999999</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>1.7253000000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>0.8</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="11">
         <v>0.78</v>
       </c>
       <c r="F27">
         <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>0.83930000000000005</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>3.0358999999999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>0.83</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="11">
         <v>0.82</v>
       </c>
       <c r="F28">
         <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>1.1634</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>0.84</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="11">
         <v>0.83</v>
       </c>
       <c r="F29">
         <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="8">
         <v>0.8155</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>1.9241999999999999</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>0.81</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="11">
         <v>0.79</v>
       </c>
       <c r="F30">
         <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>0.83040000000000003</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>2.0632000000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>0.83</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="11">
         <v>0.81</v>
       </c>
       <c r="F31">
         <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>0.5</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="11">
         <v>0</v>
       </c>
       <c r="F33">
         <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <v>0.5</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="11">
         <v>0</v>
       </c>
       <c r="F34">
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="7">
         <v>0.5</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="11">
         <v>0</v>
       </c>
       <c r="F35">
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="7">
         <v>0.5</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="11">
         <v>0</v>
       </c>
       <c r="F36">
         <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>0.5</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="11">
         <v>0</v>
       </c>
       <c r="F37">
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>0.5</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="11">
         <v>0</v>
       </c>
       <c r="F38">
         <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>0.5</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="11">
         <v>0</v>
       </c>
       <c r="F39">
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="8">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
         <v>0.5</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="11">
         <v>0</v>
       </c>
       <c r="F40">
         <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1580,20 +1613,20 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="6"/>
-    <col min="7" max="7" width="11.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="11.44140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1604,13 +1637,13 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1630,785 +1663,786 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>0.30059999999999998</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>0.86970000000000003</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>0.86250000000000004</v>
       </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>51</v>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.85709999999999997</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.31979999999999997</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.84519999999999995</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.85570000000000002</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>49</v>
+      <c r="G6" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.80059999999999998</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.45610000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.79679999999999995</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.77590000000000003</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>51</v>
+      <c r="G7" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.46729999999999999</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.70169999999999999</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.63690000000000002</v>
+      <c r="B8" s="7">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.82740000000000002</v>
       </c>
       <c r="F8">
-        <v>81</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.3301</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.84419999999999995</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.82830000000000004</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>51</v>
+      <c r="G9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.86309999999999998</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0.8629</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.85440000000000005</v>
       </c>
-      <c r="F10" s="15">
-        <v>100</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="14">
+        <v>100</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.878</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.2908</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.878</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.2908</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.86819999999999997</v>
-      </c>
-      <c r="F11" s="5">
-        <v>100</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>54</v>
+      <c r="H11" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.30349999999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.86609999999999998</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.85429999999999995</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>49</v>
+      <c r="G12" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.85419999999999996</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.33979999999999999</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.85019999999999996</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0.83499999999999996</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>51</v>
+      <c r="G14" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.32600000000000001</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.86890000000000001</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0.86080000000000001</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>49</v>
+      <c r="G15" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.85419999999999996</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.35289999999999999</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>0.85460000000000003</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>51</v>
+      <c r="G16" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.878</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.31669999999999998</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.88</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>0.87460000000000004</v>
       </c>
-      <c r="F17" s="6">
-        <v>100</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.85119999999999996</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.33729999999999999</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.85519999999999996</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.85209999999999997</v>
-      </c>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.86009999999999998</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.2979</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>0.84389999999999998</v>
       </c>
-      <c r="F19" s="6">
-        <v>100</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>49</v>
+      <c r="F19" s="5">
+        <v>100</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0.83330000000000004</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.79259999999999997</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>51</v>
+      <c r="G20" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.86609999999999998</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0.31309999999999999</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.86919999999999997</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.86450000000000005</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>49</v>
+      <c r="G21" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>0.83040000000000003</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>0.34039999999999998</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.79290000000000005</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0.75990000000000002</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>51</v>
+      <c r="G24" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0.83930000000000005</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>0.32419999999999999</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>0.77890000000000004</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>49</v>
+      <c r="G25" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.83040000000000003</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.378</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.74670000000000003</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.68479999999999996</v>
       </c>
       <c r="F26">
         <v>100</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>51</v>
+      <c r="G26" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0.83330000000000004</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0.37159999999999999</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0.7833</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>0.74639999999999995</v>
       </c>
       <c r="F27">
         <v>100</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>49</v>
+      <c r="G27" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0.46729999999999999</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>0.70150000000000001</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0.5</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>0.63700000000000001</v>
       </c>
       <c r="F28">
         <v>52</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>51</v>
+      <c r="G28" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>0.3533</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>0.80089999999999995</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>0.76639999999999997</v>
       </c>
       <c r="F29">
         <v>100</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>49</v>
+      <c r="G29" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>0.84230000000000005</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>0.3407</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>0.79530000000000001</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>0.76090000000000002</v>
       </c>
       <c r="F30">
         <v>100</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>51</v>
+      <c r="G30" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>0.86309999999999998</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>0.33529999999999999</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.84819999999999995</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>0.83440000000000003</v>
       </c>
       <c r="F31">
         <v>100</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>49</v>
+      <c r="G31" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0.53269999999999995</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>0.5</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>0</v>
       </c>
       <c r="F33">
         <v>100</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>51</v>
+      <c r="G33" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0.8407</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>0.82310000000000005</v>
       </c>
       <c r="F34">
         <v>100</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>49</v>
+      <c r="G34" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>0.84230000000000005</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>0.32350000000000001</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0.83199999999999996</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>0.80710000000000004</v>
       </c>
       <c r="F35">
         <v>100</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>50</v>
+      <c r="G35" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>0.30099999999999999</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0.8478</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.83330000000000004</v>
       </c>
       <c r="F36">
         <v>100</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>49</v>
+      <c r="G36" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>0.85119999999999996</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>0.33050000000000002</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.84179999999999999</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>0.82669999999999999</v>
       </c>
       <c r="F37">
         <v>100</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>50</v>
+      <c r="G37" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>0.86009999999999998</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>0.29659999999999997</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>0.87050000000000005</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>0.86080000000000001</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>49</v>
+      <c r="G38" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>0.34429999999999999</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>0.86409999999999998</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>0.85709999999999997</v>
       </c>
       <c r="F39">
         <v>100</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>51</v>
+      <c r="G39" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>0.83930000000000005</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>0.35699999999999998</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>0.83</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0.80700000000000005</v>
       </c>
       <c r="F40">
         <v>97</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>49</v>
+      <c r="G40" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2416,20 +2450,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05CA11-E954-43ED-8418-13A631C2E622}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="18"/>
+    <col min="8" max="8" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -2440,886 +2474,886 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.66369999999999996</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.59860000000000002</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.60470000000000002</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.45929999999999999</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
+      <c r="G6" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.64290000000000003</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.6028</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.59470000000000001</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.45950000000000002</v>
       </c>
       <c r="F7">
         <v>95</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>49</v>
+      <c r="G7" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.66369999999999996</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.59619999999999995</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.59670000000000001</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.43780000000000002</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.5867</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>95</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="G10" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="F11" s="4">
+        <v>91</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.65459999999999996</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>51</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="F13" s="5">
+        <v>100</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.62390000000000001</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>100</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.62980000000000003</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <v>100</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <v>86</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8">
         <v>0.64290000000000003</v>
       </c>
-      <c r="C9" s="9">
-        <v>0.60219999999999996</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.5867</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.43930000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <v>95</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="C20" s="8">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>98</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>51</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.60650000000000004</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.63170000000000004</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.52849999999999997</v>
-      </c>
-      <c r="F11" s="5">
-        <v>91</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.65459999999999996</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>51</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.61609999999999998</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.61890000000000001</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.50570000000000004</v>
-      </c>
-      <c r="F13" s="6">
-        <v>100</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.62390000000000001</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.62219999999999998</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="F15" s="6">
-        <v>100</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.59819999999999995</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.62980000000000003</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="F16" s="6">
-        <v>100</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.60460000000000003</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.60160000000000002</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.43880000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <v>100</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9">
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11">
         <v>0.67859999999999998</v>
       </c>
-      <c r="C18" s="9">
-        <v>0.58779999999999999</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.66069999999999995</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.61019999999999996</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.52480000000000004</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="F19" s="6">
-        <v>86</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.61060000000000003</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.49580000000000002</v>
-      </c>
-      <c r="F20" s="6">
-        <v>98</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0.60119999999999996</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.65690000000000004</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.53149999999999997</v>
-      </c>
-      <c r="F21" s="6">
-        <v>100</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0.67859999999999998</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>0.59430000000000005</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>0.53039999999999998</v>
       </c>
-      <c r="F22" s="5">
-        <v>100</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>49</v>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="14"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0.65480000000000005</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>0.6179</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0.61180000000000001</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>0.46310000000000001</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>51</v>
+      <c r="G25" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.60950000000000004</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.20979999999999999</v>
       </c>
       <c r="F26">
         <v>100</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>49</v>
+      <c r="G26" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0.6089</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0.5</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>0</v>
       </c>
       <c r="F27">
         <v>100</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>51</v>
+      <c r="G27" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>0.62619999999999998</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0.5</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>0</v>
       </c>
       <c r="F28">
         <v>100</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>49</v>
+      <c r="G28" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>0.65490000000000004</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>0.5</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>0</v>
       </c>
       <c r="F29">
         <v>52</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>51</v>
+      <c r="G29" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>0.625</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>0.62790000000000001</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>0.62649999999999995</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>0.52759999999999996</v>
       </c>
       <c r="F30">
         <v>100</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>49</v>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>0.66369999999999996</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>0.60940000000000005</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.61380000000000001</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>0.46829999999999999</v>
       </c>
       <c r="F31">
         <v>100</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>51</v>
+      <c r="G31" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>0.6169</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0.5</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>0</v>
       </c>
       <c r="F32">
         <v>100</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>49</v>
+      <c r="G32" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="11">
         <v>0.65480000000000005</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="11">
         <v>0.60729999999999995</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>0.52249999999999996</v>
       </c>
-      <c r="E34" s="9">
-        <v>0.1353</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>51</v>
+      <c r="E34" s="11">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="F34" s="4">
+        <v>100</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>0.5</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>0.71419999999999995</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0.623</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>0.54479999999999995</v>
       </c>
       <c r="F35">
         <v>100</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>49</v>
+      <c r="G35" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>0.5655</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>0.65610000000000002</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0.55179999999999996</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.24660000000000001</v>
       </c>
       <c r="F36">
         <v>100</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>50</v>
+      <c r="G36" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>0.66069999999999995</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>0.58860000000000001</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>0.5917</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>0.36809999999999998</v>
       </c>
       <c r="F37">
         <v>100</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>49</v>
+      <c r="G37" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>0.6845</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>0.59009999999999996</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.52700000000000002</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>0.13739999999999999</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>50</v>
+      <c r="G38" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>0.65480000000000005</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>0.61509999999999998</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>0.5998</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>0.45789999999999997</v>
       </c>
       <c r="F39">
         <v>100</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>49</v>
+      <c r="G39" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>5.6125999999999996</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>0.5</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0</v>
       </c>
       <c r="F40">
         <v>100</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>51</v>
+      <c r="G40" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>0.59819999999999995</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>0.64739999999999998</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>0.58899999999999997</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>0.41049999999999998</v>
       </c>
       <c r="F41">
         <v>100</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>49</v>
+      <c r="G41" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>0.58040000000000003</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>0.67769999999999997</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>0.63429999999999997</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="11">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="5">
+        <v>100</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.5595</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="9">
-        <v>0.5595</v>
-      </c>
-      <c r="C45" s="8">
-        <v>0.68669999999999998</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0.61229999999999996</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.55420000000000003</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="7"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>58</v>
+      <c r="A47" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0.66069999999999995</v>
@@ -3330,48 +3364,48 @@
       <c r="D47">
         <v>0.62429999999999997</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>0.50860000000000005</v>
       </c>
       <c r="F47">
         <v>100</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="F48" s="4">
+        <v>100</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0.60189999999999999</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0.54169999999999996</v>
-      </c>
-      <c r="F48" s="5">
-        <v>100</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
-        <v>58</v>
+      <c r="A50" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B50">
         <v>0.625</v>
@@ -3382,19 +3416,19 @@
       <c r="D50">
         <v>0.60289999999999999</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>0.496</v>
       </c>
       <c r="F50">
         <v>100</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>76</v>
+      <c r="G50" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
-        <v>57</v>
+      <c r="A51" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0.54759999999999998</v>
@@ -3405,24 +3439,24 @@
       <c r="D51">
         <v>0.60319999999999996</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>0.54759999999999998</v>
       </c>
       <c r="F51">
         <v>100</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>77</v>
+      <c r="G51" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
-        <v>58</v>
+      <c r="A53" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B53">
         <v>0.64290000000000003</v>
@@ -3433,19 +3467,19 @@
       <c r="D53">
         <v>0.62649999999999995</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>0.52759999999999996</v>
       </c>
       <c r="F53">
         <v>100</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>78</v>
+      <c r="G53" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
-        <v>57</v>
+      <c r="A54" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B54">
         <v>0.64290000000000003</v>
@@ -3456,14 +3490,14 @@
       <c r="D54">
         <v>0.64439999999999997</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>0.55879999999999996</v>
       </c>
       <c r="F54">
         <v>100</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>80</v>
+      <c r="G54" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3474,21 +3508,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA506A-0B11-4BCF-A1AE-7CC772A89491}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -3499,13 +3534,13 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3513,407 +3548,601 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="8">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.86609999999999998</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.33</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.84540000000000004</v>
       </c>
       <c r="F5">
         <v>96</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>68</v>
+      <c r="G5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="22">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>0.86729999999999996</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>0.85709999999999997</v>
       </c>
-      <c r="F6" s="22">
-        <v>100</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>69</v>
+      <c r="F6" s="21">
+        <v>100</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="8">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.86009999999999998</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.3553</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.83850000000000002</v>
       </c>
       <c r="F7">
         <v>66</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>68</v>
+      <c r="G7" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="8">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7">
         <v>0.85270000000000001</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.34510000000000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.85019999999999996</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.83499999999999996</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>68</v>
+      <c r="G8" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.3301</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="8">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.3301</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.85740000000000005</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.84030000000000005</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>0.32550000000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>0.8669</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>0.85619999999999996</v>
       </c>
-      <c r="F11" s="5">
-        <v>100</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>69</v>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="8">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.35420000000000001</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.84419999999999995</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.82830000000000004</v>
       </c>
       <c r="F12">
         <v>57</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>68</v>
+      <c r="G12" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="8">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.85570000000000002</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>0.34289999999999998</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.85260000000000002</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.8367</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>69</v>
+      <c r="G13" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8">
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.39410000000000001</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.78420000000000001</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>0.85419999999999996</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>0.37690000000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>0.85219999999999996</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>0.84040000000000004</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="8">
+        <v>61</v>
+      </c>
+      <c r="B18" s="7">
         <v>0.83630000000000004</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>0.40129999999999999</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.83030000000000004</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.80840000000000001</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="8">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.83479999999999999</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0.3866</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.83350000000000002</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.81850000000000001</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="G20" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.3785</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.3785</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.83860000000000001</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>0.84819999999999995</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>0.37509999999999999</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>0.8306</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="G23" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="8">
+        <v>62</v>
+      </c>
+      <c r="B24" s="7">
         <v>0.83630000000000004</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.83620000000000005</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>0.82120000000000004</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="A26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="7">
         <v>0.70540000000000003</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.65249999999999997</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.70579999999999998</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>0.69350000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="E30">
+        <v>0.85529999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="19" t="s">
         <v>89</v>
+      </c>
+      <c r="B31">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="E31">
+        <v>0.85529999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="E33">
+        <v>0.88160000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.88160000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>0.878</v>
+      </c>
+      <c r="C36">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C37">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.8609</v>
+      </c>
+      <c r="E37">
+        <v>0.85360000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>0.46</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="C41">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>0.63690000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="C42">
+        <v>1.1685000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>0.63690000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3921,7 +4150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC7697-358E-4536-9DD9-10DC7855A51F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3933,7 +4162,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -3944,13 +4173,13 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3958,29 +4187,29 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4003,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -4014,13 +4243,13 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4028,33 +4257,33 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>83</v>
+      <c r="A6" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.67110000000000003</v>
@@ -4069,12 +4298,12 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
-        <v>85</v>
+      <c r="A7" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B7">
         <v>0.65029999999999999</v>
@@ -4089,13 +4318,13 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0.39140000000000003</v>
@@ -4110,12 +4339,12 @@
         <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="H9" s="21"/>
+      <c r="H9" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Tests performance.xlsx
+++ b/doc/Tests performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09238fdc39009c17/Documents/Università/AIDE/Computational Intelligence and Deep Learning/Progetto/Deep-Learning-for-CBIS-DDSM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1096" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46671597-9265-4992-A575-5C66FF8657C5}"/>
+  <xr:revisionPtr revIDLastSave="1305" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{516F2690-E75B-46DB-9E76-63ED7BB7BA86}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="107">
   <si>
     <t>Architecture: [32,32,64,64,128]</t>
   </si>
@@ -330,6 +330,36 @@
   </si>
   <si>
     <t>" (15 epoche)</t>
+  </si>
+  <si>
+    <t>holdout</t>
+  </si>
+  <si>
+    <t>test 6:</t>
+  </si>
+  <si>
+    <t>test 1:</t>
+  </si>
+  <si>
+    <t>fa schifo</t>
+  </si>
+  <si>
+    <t>test2:</t>
+  </si>
+  <si>
+    <t>test4:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test 2: </t>
+  </si>
+  <si>
+    <t>F-score</t>
+  </si>
+  <si>
+    <t>hu: 64</t>
+  </si>
+  <si>
+    <t>hu: 128</t>
   </si>
 </sst>
 </file>
@@ -424,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,6 +495,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1610,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F0B05-CB8B-4787-92B9-2317B8DB6DB8}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1622,9 +1662,10 @@
     <col min="5" max="5" width="8.88671875" style="5"/>
     <col min="7" max="7" width="11.44140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1647,22 +1688,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1684,8 +1725,11 @@
       <c r="G5" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1707,8 +1751,11 @@
       <c r="G6" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1730,8 +1777,11 @@
       <c r="G7" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1753,8 +1803,22 @@
       <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="L8" s="25">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="M8" s="26">
+        <f>AVERAGE(L8:L11)</f>
+        <v>0.85567499999999996</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0.3039</v>
+      </c>
+      <c r="O8" s="26">
+        <f>AVERAGE(N8:N11)</f>
+        <v>0.31054999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1776,8 +1840,14 @@
       <c r="G9" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="L9" s="25">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0.31640000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1802,8 +1872,17 @@
       <c r="H10" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0.29830000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1828,8 +1907,15 @@
       <c r="H11" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="24"/>
+      <c r="L11" s="25">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0.3236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1851,8 +1937,11 @@
       <c r="G12" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +1950,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1883,8 +1972,12 @@
       <c r="G14" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1906,8 +1999,10 @@
       <c r="G15" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="L15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1929,8 +2024,10 @@
       <c r="G16" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="L16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1952,8 +2049,10 @@
       <c r="G17" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="L17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +2075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1999,7 +2098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2021,8 +2120,12 @@
       <c r="G20" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2044,8 +2147,10 @@
       <c r="G21" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="L21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2158,10 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="L22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2062,8 +2169,10 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="L23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2085,8 +2194,9 @@
       <c r="G24" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2108,8 +2218,9 @@
       <c r="G25" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2243,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2155,7 +2266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2178,7 +2289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2201,7 +2312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2224,7 +2335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +2358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -2448,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05CA11-E954-43ED-8418-13A631C2E622}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2461,7 +2572,7 @@
     <col min="8" max="8" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2484,48 +2595,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="25">
         <v>0.66369999999999996</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="25">
         <v>0.59860000000000002</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="25">
         <v>0.60470000000000002</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="30">
         <v>0.45929999999999999</v>
       </c>
       <c r="F6">
@@ -2534,21 +2648,35 @@
       <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="L6" s="25">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="M6" s="26">
+        <f>AVERAGE(L6:L9)</f>
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="O6" s="26">
+        <f>AVERAGE(N6:N9)</f>
+        <v>0.60877499999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="25">
         <v>0.64290000000000003</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="25">
         <v>0.6028</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="25">
         <v>0.59470000000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="30">
         <v>0.45950000000000002</v>
       </c>
       <c r="F7">
@@ -2557,21 +2685,29 @@
       <c r="G7" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="L7" s="25">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="25">
         <v>0.66369999999999996</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="25">
         <v>0.59619999999999995</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="25">
         <v>0.59670000000000001</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="30">
         <v>0.43780000000000002</v>
       </c>
       <c r="F8">
@@ -2580,21 +2716,29 @@
       <c r="G8" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="L8" s="25">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="30">
         <v>0.64290000000000003</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="30">
         <v>0.60219999999999996</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="30">
         <v>0.5867</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="30">
         <v>0.43930000000000002</v>
       </c>
       <c r="F9" s="5">
@@ -2603,44 +2747,52 @@
       <c r="G9" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="L9" s="25">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
+      <c r="B10" s="30">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0.5333</v>
       </c>
       <c r="F10" s="5">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="31">
         <v>0.65480000000000005</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="31">
         <v>0.60650000000000004</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="31">
         <v>0.63170000000000004</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="31">
         <v>0.52849999999999997</v>
       </c>
       <c r="F11" s="4">
@@ -2652,21 +2804,27 @@
       <c r="H11" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="30">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="30">
         <v>0.65459999999999996</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="30">
         <v>0.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="30">
         <v>0</v>
       </c>
       <c r="F12" s="5">
@@ -2675,21 +2833,35 @@
       <c r="G12" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="L12" s="25">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="M12" s="26">
+        <f>AVERAGE(L12:L15)</f>
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="O12" s="26">
+        <f>AVERAGE(N12:N15)</f>
+        <v>0.61945000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="30">
         <v>0.61609999999999998</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="30">
         <v>0.61890000000000001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="30">
         <v>0.60399999999999998</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="30">
         <v>0.50570000000000004</v>
       </c>
       <c r="F13" s="5">
@@ -2698,8 +2870,14 @@
       <c r="G13" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="L13" s="25">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0.63249999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2709,8 +2887,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="L14" s="25">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0.62380000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2732,8 +2916,14 @@
       <c r="G15" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="L15" s="25">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0.62319999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2756,7 +2946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:19">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2778,8 +2968,23 @@
       <c r="G17" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2801,8 +3006,36 @@
       <c r="G18" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="L18" s="25">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="M18" s="26">
+        <f>AVERAGE(L18:L21)</f>
+        <v>0.65625</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0.6401</v>
+      </c>
+      <c r="O18" s="26">
+        <f>AVERAGE(N18:N21)</f>
+        <v>0.61952499999999999</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="Q18" s="26">
+        <f>AVERAGE(P18:P21)</f>
+        <v>0.63924999999999998</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0.56120000000000003</v>
+      </c>
+      <c r="S18" s="26">
+        <f>AVERAGE(R18:R21)</f>
+        <v>0.54075000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2824,8 +3057,20 @@
       <c r="G19" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="L19" s="25">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="N19" s="25">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0.5272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2847,8 +3092,20 @@
       <c r="G20" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="L20" s="25">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0.52990000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2870,8 +3127,20 @@
       <c r="G21" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="L21" s="25">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2894,7 +3163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:19">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2905,7 +3174,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2915,7 +3184,7 @@
       <c r="E24" s="8"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2938,7 +3207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2961,7 +3230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2984,7 +3253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3007,7 +3276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3030,7 +3299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3053,7 +3322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3076,7 +3345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3099,7 +3368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3109,7 +3378,7 @@
       <c r="E33" s="8"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:19">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -3132,7 +3401,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3155,7 +3424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3178,7 +3447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3201,7 +3470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3224,7 +3493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3247,7 +3516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3270,7 +3539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3293,12 +3562,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:19">
       <c r="A43" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="L43" t="s">
+        <v>105</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>15</v>
+      </c>
+      <c r="S43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
@@ -3320,8 +3604,36 @@
       <c r="G44" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="L44">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="M44" s="26">
+        <f>AVERAGE(L44:L47)</f>
+        <v>0.56099999999999994</v>
+      </c>
+      <c r="N44" s="20">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="O44" s="26">
+        <f>AVERAGE(N44:N47)</f>
+        <v>0.67497499999999999</v>
+      </c>
+      <c r="P44" s="28">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="Q44" s="26">
+        <f>AVERAGE(P44:P47)</f>
+        <v>0.61495</v>
+      </c>
+      <c r="R44">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="S44" s="26">
+        <f>AVERAGE(R44:R47)</f>
+        <v>0.55672499999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="5" t="s">
         <v>55</v>
       </c>
@@ -3343,15 +3655,39 @@
       <c r="G45" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="L45" s="20">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="N45">
+        <v>0.7248</v>
+      </c>
+      <c r="P45">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="R45">
+        <v>0.55959999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E46" s="7"/>
       <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="L46">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="N46">
+        <v>0.6542</v>
+      </c>
+      <c r="P46">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="R46">
+        <v>0.5706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="5" t="s">
         <v>56</v>
       </c>
@@ -3373,8 +3709,20 @@
       <c r="G47" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="L47">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="N47">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="P47">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="R47">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
@@ -3397,13 +3745,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:12">
       <c r="A49" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="L49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
@@ -3426,7 +3777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -3449,12 +3800,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -3477,7 +3828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>

--- a/doc/Tests performance.xlsx
+++ b/doc/Tests performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09238fdc39009c17/Documents/Università/AIDE/Computational Intelligence and Deep Learning/Progetto/Deep-Learning-for-CBIS-DDSM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1305" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{516F2690-E75B-46DB-9E76-63ED7BB7BA86}"/>
+  <xr:revisionPtr revIDLastSave="1390" documentId="8_{0660A1F7-D741-4808-B0C6-8261EEFD8CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D2A8492F-F651-49E2-9638-FD8A063E1170}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{D11E9D6A-2193-4534-B0B2-1503F91A5C61}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="111">
   <si>
     <t>Architecture: [32,32,64,64,128]</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>hu: 128</t>
+  </si>
+  <si>
+    <t>Fscore</t>
+  </si>
+  <si>
+    <t>[32,32,64,64,128]</t>
+  </si>
+  <si>
+    <t>batch_s:50, hidden_n=64</t>
+  </si>
+  <si>
+    <t>" with weights</t>
   </si>
 </sst>
 </file>
@@ -1650,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F0B05-CB8B-4787-92B9-2317B8DB6DB8}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1665,7 +1677,7 @@
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1688,22 +1700,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1780,8 +1792,20 @@
       <c r="L7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1808,17 +1832,31 @@
       </c>
       <c r="M8" s="26">
         <f>AVERAGE(L8:L11)</f>
-        <v>0.85567499999999996</v>
+        <v>0.86012499999999992</v>
       </c>
       <c r="N8" s="27">
         <v>0.3039</v>
       </c>
       <c r="O8" s="26">
         <f>AVERAGE(N8:N11)</f>
-        <v>0.31054999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.30595</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>AVERAGE(P8:P11)</f>
+        <v>0.85855000000000004</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="S8" s="26">
+        <f>AVERAGE(R8:R11)</f>
+        <v>0.84757499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1841,13 +1879,21 @@
         <v>49</v>
       </c>
       <c r="L9" s="25">
-        <v>0.85419999999999996</v>
+        <v>0.872</v>
       </c>
       <c r="N9" s="25">
-        <v>0.31640000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1881,8 +1927,16 @@
       <c r="N10" s="25">
         <v>0.29830000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="25">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1914,8 +1968,16 @@
       <c r="N11" s="25">
         <v>0.3236</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="25">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +2003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +2012,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1977,7 +2039,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2064,7 @@
       <c r="L15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2559,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05CA11-E954-43ED-8418-13A631C2E622}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49:S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3745,16 +3807,41 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:19">
       <c r="A49" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="L49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="L49" s="25">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="M49" s="26">
+        <f>AVERAGE(L49:L52)</f>
+        <v>0.58852499999999996</v>
+      </c>
+      <c r="N49" s="25">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="O49" s="26">
+        <f>AVERAGE(N49:N52)</f>
+        <v>0.65847500000000003</v>
+      </c>
+      <c r="P49" s="25">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="Q49" s="26">
+        <f>AVERAGE(P49:P52)</f>
+        <v>0.62614999999999998</v>
+      </c>
+      <c r="R49" s="29">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="S49" s="26">
+        <f>AVERAGE(R49:R52)</f>
+        <v>0.55864999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
@@ -3776,8 +3863,24 @@
       <c r="G50" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="L50" s="25">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="29">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="S50" s="25"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -3799,13 +3902,45 @@
       <c r="G51" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="L51" s="25">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="S51" s="25"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="L52" s="25">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="S52" s="25"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -3828,7 +3963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:19">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -3849,6 +3984,83 @@
       </c>
       <c r="G54" s="10" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="L55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="L56">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="M56" s="26">
+        <f>AVERAGE(L56:L59)</f>
+        <v>0.60045000000000004</v>
+      </c>
+      <c r="N56">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O56" s="26">
+        <f>AVERAGE(N56:N59)</f>
+        <v>0.67884999999999995</v>
+      </c>
+      <c r="P56">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="Q56" s="26">
+        <f>AVERAGE(P56:P59)</f>
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="R56">
+        <v>0.55720000000000003</v>
+      </c>
+      <c r="S56" s="26">
+        <f>AVERAGE(R56:R59)</f>
+        <v>0.41710000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="L57">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="N57">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="P57">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="R57">
+        <v>0.55730000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="L58">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="N58">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="P58">
+        <v>0.6069</v>
+      </c>
+      <c r="R58">
+        <v>0.55389999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="L59">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="N59">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="P59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +4711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC7697-358E-4536-9DD9-10DC7855A51F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4536,7 +4748,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="10"/>
@@ -4549,21 +4761,44 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
+      <c r="A4" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.80289999999999995</v>
+      </c>
       <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.78759999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
